--- a/DOCS/стоимость.xlsx
+++ b/DOCS/стоимость.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Наименование</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>1 мкФ-NP0-16В ±10% 0805</t>
+  </si>
+  <si>
+    <t>ESP-01S</t>
+  </si>
+  <si>
+    <t>AHT20</t>
+  </si>
+  <si>
+    <t>WEA012864MX</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,11 +514,11 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E27" si="0">C3*B3</f>
+        <f t="shared" ref="E3:E30" si="0">C3*B3</f>
         <v>36</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F27" si="1">D3*B3*1000</f>
+        <f t="shared" ref="F3:F30" si="1">D3*B3*1000</f>
         <v>6000</v>
       </c>
     </row>
@@ -799,7 +808,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -821,7 +830,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -843,7 +852,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -865,7 +874,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -887,7 +896,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -909,7 +918,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -931,7 +940,7 @@
         <v>23720</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -953,7 +962,7 @@
         <v>42070</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -975,7 +984,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1041,14 +1050,88 @@
         <v>398840</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>78.69</v>
+      </c>
+      <c r="D28" s="1">
+        <v>78.69</v>
+      </c>
       <c r="E28">
-        <f>SUM(E2:E27)</f>
-        <v>1383.83</v>
+        <f t="shared" si="0"/>
+        <v>78.69</v>
       </c>
       <c r="F28">
-        <f>SUM(F2:F27)</f>
-        <v>1057250</v>
+        <f t="shared" si="1"/>
+        <v>78690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>78.69</v>
+      </c>
+      <c r="D29" s="1">
+        <v>78.69</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>78.69</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>78690</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>437.08</v>
+      </c>
+      <c r="D30" s="1">
+        <v>334.96</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>437.08</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>334960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B2:B26)</f>
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E2:E30)</f>
+        <v>1978.29</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F2:F30)</f>
+        <v>1549590</v>
+      </c>
+      <c r="G31">
+        <f>F31/1000</f>
+        <v>1549.59</v>
       </c>
     </row>
   </sheetData>
